--- a/traderecords/f6_20211122.xlsx
+++ b/traderecords/f6_20211122.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="447">
   <si>
     <t>证券代码</t>
   </si>
@@ -616,15 +616,6 @@
     <t>天弘300</t>
   </si>
   <si>
-    <t>成交类型</t>
-  </si>
-  <si>
-    <t>买卖</t>
-  </si>
-  <si>
-    <t>撤单</t>
-  </si>
-  <si>
     <t>方向</t>
   </si>
   <si>
@@ -1027,354 +1018,6 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>成交金额</t>
-  </si>
-  <si>
-    <t>5580.00</t>
-  </si>
-  <si>
-    <t>10373.00</t>
-  </si>
-  <si>
-    <t>11596.00</t>
-  </si>
-  <si>
-    <t>4834.00</t>
-  </si>
-  <si>
-    <t>5142.00</t>
-  </si>
-  <si>
-    <t>4482.00</t>
-  </si>
-  <si>
-    <t>3203.00</t>
-  </si>
-  <si>
-    <t>5498.00</t>
-  </si>
-  <si>
-    <t>4293.00</t>
-  </si>
-  <si>
-    <t>3564.00</t>
-  </si>
-  <si>
-    <t>2692.00</t>
-  </si>
-  <si>
-    <t>3738.00</t>
-  </si>
-  <si>
-    <t>3051.00</t>
-  </si>
-  <si>
-    <t>9460.00</t>
-  </si>
-  <si>
-    <t>6308.00</t>
-  </si>
-  <si>
-    <t>1028.00</t>
-  </si>
-  <si>
-    <t>4300.00</t>
-  </si>
-  <si>
-    <t>8109.00</t>
-  </si>
-  <si>
-    <t>4040.00</t>
-  </si>
-  <si>
-    <t>3232.00</t>
-  </si>
-  <si>
-    <t>5252.00</t>
-  </si>
-  <si>
-    <t>808.00</t>
-  </si>
-  <si>
-    <t>3231.00</t>
-  </si>
-  <si>
-    <t>4123.00</t>
-  </si>
-  <si>
-    <t>2990.00</t>
-  </si>
-  <si>
-    <t>3690.00</t>
-  </si>
-  <si>
-    <t>4141.00</t>
-  </si>
-  <si>
-    <t>5506.00</t>
-  </si>
-  <si>
-    <t>2704.00</t>
-  </si>
-  <si>
-    <t>1352.00</t>
-  </si>
-  <si>
-    <t>4056.00</t>
-  </si>
-  <si>
-    <t>2110.00</t>
-  </si>
-  <si>
-    <t>6102.00</t>
-  </si>
-  <si>
-    <t>4567.00</t>
-  </si>
-  <si>
-    <t>10200.00</t>
-  </si>
-  <si>
-    <t>3942.00</t>
-  </si>
-  <si>
-    <t>6000.00</t>
-  </si>
-  <si>
-    <t>4083.00</t>
-  </si>
-  <si>
-    <t>1716.00</t>
-  </si>
-  <si>
-    <t>5092.00</t>
-  </si>
-  <si>
-    <t>5173.00</t>
-  </si>
-  <si>
-    <t>4376.00</t>
-  </si>
-  <si>
-    <t>4067.00</t>
-  </si>
-  <si>
-    <t>3619.00</t>
-  </si>
-  <si>
-    <t>2706.00</t>
-  </si>
-  <si>
-    <t>2226.00</t>
-  </si>
-  <si>
-    <t>5988.00</t>
-  </si>
-  <si>
-    <t>3334.00</t>
-  </si>
-  <si>
-    <t>2414.00</t>
-  </si>
-  <si>
-    <t>1207.00</t>
-  </si>
-  <si>
-    <t>3834.00</t>
-  </si>
-  <si>
-    <t>4942.00</t>
-  </si>
-  <si>
-    <t>7904.00</t>
-  </si>
-  <si>
-    <t>4215.00</t>
-  </si>
-  <si>
-    <t>4627.00</t>
-  </si>
-  <si>
-    <t>9180.00</t>
-  </si>
-  <si>
-    <t>7836.00</t>
-  </si>
-  <si>
-    <t>9633.00</t>
-  </si>
-  <si>
-    <t>2712.00</t>
-  </si>
-  <si>
-    <t>3207.00</t>
-  </si>
-  <si>
-    <t>2469.00</t>
-  </si>
-  <si>
-    <t>4993.00</t>
-  </si>
-  <si>
-    <t>4791.00</t>
-  </si>
-  <si>
-    <t>3908.00</t>
-  </si>
-  <si>
-    <t>2517.00</t>
-  </si>
-  <si>
-    <t>2518.00</t>
-  </si>
-  <si>
-    <t>3204.00</t>
-  </si>
-  <si>
-    <t>2978.00</t>
-  </si>
-  <si>
-    <t>5250.00</t>
-  </si>
-  <si>
-    <t>2438.00</t>
-  </si>
-  <si>
-    <t>6629.00</t>
-  </si>
-  <si>
-    <t>4595.00</t>
-  </si>
-  <si>
-    <t>6370.00</t>
-  </si>
-  <si>
-    <t>7756.00</t>
-  </si>
-  <si>
-    <t>6243.00</t>
-  </si>
-  <si>
-    <t>4914.00</t>
-  </si>
-  <si>
-    <t>6150.00</t>
-  </si>
-  <si>
-    <t>5054.00</t>
-  </si>
-  <si>
-    <t>5100.00</t>
-  </si>
-  <si>
-    <t>4787.00</t>
-  </si>
-  <si>
-    <t>4249.00</t>
-  </si>
-  <si>
-    <t>4418.00</t>
-  </si>
-  <si>
-    <t>3683.00</t>
-  </si>
-  <si>
-    <t>3218.00</t>
-  </si>
-  <si>
-    <t>3636.00</t>
-  </si>
-  <si>
-    <t>6361.00</t>
-  </si>
-  <si>
-    <t>13223.00</t>
-  </si>
-  <si>
-    <t>5760.00</t>
-  </si>
-  <si>
-    <t>1728.00</t>
-  </si>
-  <si>
-    <t>1152.00</t>
-  </si>
-  <si>
-    <t>7200.00</t>
-  </si>
-  <si>
-    <t>2448.00</t>
-  </si>
-  <si>
-    <t>2454.00</t>
-  </si>
-  <si>
-    <t>4126.00</t>
-  </si>
-  <si>
-    <t>4416.00</t>
-  </si>
-  <si>
-    <t>4465.00</t>
-  </si>
-  <si>
-    <t>4466.00</t>
-  </si>
-  <si>
-    <t>2407.00</t>
-  </si>
-  <si>
-    <t>5166.00</t>
-  </si>
-  <si>
-    <t>4572.00</t>
-  </si>
-  <si>
-    <t>762.00</t>
-  </si>
-  <si>
-    <t>3815.00</t>
-  </si>
-  <si>
-    <t>8115.00</t>
-  </si>
-  <si>
-    <t>9176.00</t>
-  </si>
-  <si>
-    <t>6222.00</t>
-  </si>
-  <si>
-    <t>2693.00</t>
-  </si>
-  <si>
-    <t>4543.00</t>
-  </si>
-  <si>
-    <t>4256.00</t>
-  </si>
-  <si>
-    <t>7832.00</t>
-  </si>
-  <si>
-    <t>8576.00</t>
-  </si>
-  <si>
-    <t>6018.00</t>
-  </si>
-  <si>
-    <t>3472.00</t>
-  </si>
-  <si>
-    <t>962.00</t>
-  </si>
-  <si>
-    <t>3714.00</t>
-  </si>
-  <si>
-    <t>3095.00</t>
-  </si>
-  <si>
     <t>成交时间</t>
   </si>
   <si>
@@ -1706,294 +1349,6 @@
   </si>
   <si>
     <t>2021-11-22 09:15:07.000</t>
-  </si>
-  <si>
-    <t>委托数量</t>
-  </si>
-  <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>委托价格</t>
-  </si>
-  <si>
-    <t>18.45</t>
-  </si>
-  <si>
-    <t>9.48</t>
-  </si>
-  <si>
-    <t>9.04</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>22.46</t>
-  </si>
-  <si>
-    <t>31.75</t>
-  </si>
-  <si>
-    <t>55.24</t>
-  </si>
-  <si>
-    <t>42.92</t>
-  </si>
-  <si>
-    <t>35.83</t>
-  </si>
-  <si>
-    <t>26.70</t>
-  </si>
-  <si>
-    <t>37.58</t>
-  </si>
-  <si>
-    <t>9.45</t>
-  </si>
-  <si>
-    <t>63.07</t>
-  </si>
-  <si>
-    <t>4.06</t>
-  </si>
-  <si>
-    <t>32.33</t>
-  </si>
-  <si>
-    <t>41.37</t>
-  </si>
-  <si>
-    <t>29.67</t>
-  </si>
-  <si>
-    <t>12.23</t>
-  </si>
-  <si>
-    <t>41.07</t>
-  </si>
-  <si>
-    <t>27.39</t>
-  </si>
-  <si>
-    <t>13.61</t>
-  </si>
-  <si>
-    <t>21.06</t>
-  </si>
-  <si>
-    <t>10.21</t>
-  </si>
-  <si>
-    <t>45.28</t>
-  </si>
-  <si>
-    <t>12.81</t>
-  </si>
-  <si>
-    <t>39.62</t>
-  </si>
-  <si>
-    <t>7.44</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>8.52</t>
-  </si>
-  <si>
-    <t>25.21</t>
-  </si>
-  <si>
-    <t>7.42</t>
-  </si>
-  <si>
-    <t>43.92</t>
-  </si>
-  <si>
-    <t>5.86</t>
-  </si>
-  <si>
-    <t>35.89</t>
-  </si>
-  <si>
-    <t>26.85</t>
-  </si>
-  <si>
-    <t>22.09</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>16.55</t>
-  </si>
-  <si>
-    <t>12.12</t>
-  </si>
-  <si>
-    <t>12.77</t>
-  </si>
-  <si>
-    <t>49.41</t>
-  </si>
-  <si>
-    <t>46.18</t>
-  </si>
-  <si>
-    <t>13.13</t>
-  </si>
-  <si>
-    <t>27.23</t>
-  </si>
-  <si>
-    <t>10.75</t>
-  </si>
-  <si>
-    <t>8.12</t>
-  </si>
-  <si>
-    <t>49.46</t>
-  </si>
-  <si>
-    <t>48.16</t>
-  </si>
-  <si>
-    <t>38.68</t>
-  </si>
-  <si>
-    <t>25.32</t>
-  </si>
-  <si>
-    <t>32.22</t>
-  </si>
-  <si>
-    <t>14.75</t>
-  </si>
-  <si>
-    <t>17.37</t>
-  </si>
-  <si>
-    <t>9.52</t>
-  </si>
-  <si>
-    <t>9.10</t>
-  </si>
-  <si>
-    <t>6.39</t>
-  </si>
-  <si>
-    <t>5.57</t>
-  </si>
-  <si>
-    <t>20.65</t>
-  </si>
-  <si>
-    <t>16.27</t>
-  </si>
-  <si>
-    <t>4.13</t>
-  </si>
-  <si>
-    <t>25.43</t>
-  </si>
-  <si>
-    <t>25.38</t>
-  </si>
-  <si>
-    <t>47.39</t>
-  </si>
-  <si>
-    <t>42.61</t>
-  </si>
-  <si>
-    <t>44.39</t>
-  </si>
-  <si>
-    <t>36.69</t>
-  </si>
-  <si>
-    <t>31.93</t>
-  </si>
-  <si>
-    <t>18.25</t>
-  </si>
-  <si>
-    <t>63.57</t>
-  </si>
-  <si>
-    <t>18.75</t>
-  </si>
-  <si>
-    <t>5.79</t>
-  </si>
-  <si>
-    <t>72.39</t>
-  </si>
-  <si>
-    <t>59.52</t>
-  </si>
-  <si>
-    <t>24.73</t>
-  </si>
-  <si>
-    <t>41.34</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>44.73</t>
-  </si>
-  <si>
-    <t>24.20</t>
-  </si>
-  <si>
-    <t>7.48</t>
-  </si>
-  <si>
-    <t>27.29</t>
-  </si>
-  <si>
-    <t>45.98</t>
-  </si>
-  <si>
-    <t>31.16</t>
-  </si>
-  <si>
-    <t>45.14</t>
-  </si>
-  <si>
-    <t>42.71</t>
-  </si>
-  <si>
-    <t>39.29</t>
-  </si>
-  <si>
-    <t>5.37</t>
-  </si>
-  <si>
-    <t>20.16</t>
-  </si>
-  <si>
-    <t>17.48</t>
-  </si>
-  <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>6.24</t>
-  </si>
-  <si>
-    <t>1.00</t>
   </si>
   <si>
     <t>卖出</t>
@@ -2338,20 +1693,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2362,31 +1716,19 @@
         <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
         <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J1" t="s">
-        <v>564</v>
-      </c>
-      <c r="K1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2394,34 +1736,22 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
         <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I2" t="s">
-        <v>454</v>
-      </c>
-      <c r="J2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2429,34 +1759,22 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" t="s">
-        <v>339</v>
-      </c>
-      <c r="I3" t="s">
-        <v>455</v>
-      </c>
-      <c r="J3" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2464,34 +1782,22 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" t="s">
-        <v>340</v>
-      </c>
-      <c r="I4" t="s">
-        <v>456</v>
-      </c>
-      <c r="J4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2499,34 +1805,22 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D5" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I5" t="s">
-        <v>457</v>
-      </c>
-      <c r="J5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2534,34 +1828,22 @@
         <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D6" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I6" t="s">
-        <v>458</v>
-      </c>
-      <c r="J6" t="s">
-        <v>212</v>
-      </c>
-      <c r="K6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2569,34 +1851,22 @@
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D7" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H7" t="s">
-        <v>343</v>
-      </c>
-      <c r="I7" t="s">
-        <v>459</v>
-      </c>
-      <c r="J7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2604,34 +1874,22 @@
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" t="s">
-        <v>344</v>
-      </c>
-      <c r="I8" t="s">
-        <v>460</v>
-      </c>
-      <c r="J8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2639,34 +1897,22 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D9" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H9" t="s">
-        <v>344</v>
-      </c>
-      <c r="I9" t="s">
-        <v>460</v>
-      </c>
-      <c r="J9" t="s">
-        <v>211</v>
-      </c>
-      <c r="K9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2674,34 +1920,22 @@
         <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D10" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I10" t="s">
-        <v>461</v>
-      </c>
-      <c r="J10" t="s">
-        <v>213</v>
-      </c>
-      <c r="K10" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2709,34 +1943,22 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D11" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" t="s">
-        <v>346</v>
-      </c>
-      <c r="I11" t="s">
-        <v>462</v>
-      </c>
-      <c r="J11" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2744,34 +1966,22 @@
         <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D12" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" t="s">
-        <v>347</v>
-      </c>
-      <c r="I12" t="s">
-        <v>463</v>
-      </c>
-      <c r="J12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K12" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2779,34 +1989,22 @@
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D13" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" t="s">
-        <v>348</v>
-      </c>
-      <c r="I13" t="s">
-        <v>464</v>
-      </c>
-      <c r="J13" t="s">
-        <v>213</v>
-      </c>
-      <c r="K13" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2814,34 +2012,22 @@
         <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" t="s">
-        <v>349</v>
-      </c>
-      <c r="I14" t="s">
-        <v>465</v>
-      </c>
-      <c r="J14" t="s">
-        <v>213</v>
-      </c>
-      <c r="K14" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2849,34 +2035,22 @@
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
-      </c>
-      <c r="H15" t="s">
-        <v>350</v>
-      </c>
-      <c r="I15" t="s">
-        <v>466</v>
-      </c>
-      <c r="J15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2884,34 +2058,22 @@
         <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D16" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H16" t="s">
-        <v>351</v>
-      </c>
-      <c r="I16" t="s">
-        <v>467</v>
-      </c>
-      <c r="J16" t="s">
-        <v>214</v>
-      </c>
-      <c r="K16" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2919,34 +2081,22 @@
         <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D17" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H17" t="s">
-        <v>352</v>
-      </c>
-      <c r="I17" t="s">
-        <v>468</v>
-      </c>
-      <c r="J17" t="s">
-        <v>213</v>
-      </c>
-      <c r="K17" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2954,34 +2104,22 @@
         <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D18" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
-      </c>
-      <c r="H18" t="s">
-        <v>353</v>
-      </c>
-      <c r="I18" t="s">
-        <v>469</v>
-      </c>
-      <c r="J18" t="s">
-        <v>213</v>
-      </c>
-      <c r="K18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2989,34 +2127,22 @@
         <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G19" t="s">
-        <v>240</v>
-      </c>
-      <c r="H19" t="s">
-        <v>354</v>
-      </c>
-      <c r="I19" t="s">
-        <v>470</v>
-      </c>
-      <c r="J19" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3024,34 +2150,22 @@
         <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
         <v>205</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
-      </c>
-      <c r="H20" t="s">
-        <v>355</v>
-      </c>
-      <c r="I20" t="s">
-        <v>471</v>
-      </c>
-      <c r="J20" t="s">
-        <v>208</v>
-      </c>
-      <c r="K20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3059,34 +2173,22 @@
         <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D21" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
-      </c>
-      <c r="H21" t="s">
-        <v>356</v>
-      </c>
-      <c r="I21" t="s">
-        <v>472</v>
-      </c>
-      <c r="J21" t="s">
-        <v>565</v>
-      </c>
-      <c r="K21" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3094,34 +2196,22 @@
         <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" t="s">
-        <v>357</v>
-      </c>
-      <c r="I22" t="s">
-        <v>472</v>
-      </c>
-      <c r="J22" t="s">
-        <v>565</v>
-      </c>
-      <c r="K22" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3129,34 +2219,22 @@
         <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D23" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
-      </c>
-      <c r="H23" t="s">
-        <v>358</v>
-      </c>
-      <c r="I23" t="s">
-        <v>472</v>
-      </c>
-      <c r="J23" t="s">
-        <v>565</v>
-      </c>
-      <c r="K23" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3164,34 +2242,22 @@
         <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D24" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>242</v>
-      </c>
-      <c r="H24" t="s">
-        <v>359</v>
-      </c>
-      <c r="I24" t="s">
-        <v>472</v>
-      </c>
-      <c r="J24" t="s">
-        <v>565</v>
-      </c>
-      <c r="K24" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3199,34 +2265,22 @@
         <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D25" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H25" t="s">
-        <v>360</v>
-      </c>
-      <c r="I25" t="s">
-        <v>473</v>
-      </c>
-      <c r="J25" t="s">
-        <v>208</v>
-      </c>
-      <c r="K25" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3234,34 +2288,22 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D26" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
-      </c>
-      <c r="H26" t="s">
-        <v>357</v>
-      </c>
-      <c r="I26" t="s">
-        <v>473</v>
-      </c>
-      <c r="J26" t="s">
-        <v>208</v>
-      </c>
-      <c r="K26" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3269,34 +2311,22 @@
         <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D27" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>244</v>
-      </c>
-      <c r="H27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I27" t="s">
-        <v>473</v>
-      </c>
-      <c r="J27" t="s">
-        <v>208</v>
-      </c>
-      <c r="K27" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3304,34 +2334,22 @@
         <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D28" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>245</v>
-      </c>
-      <c r="H28" t="s">
-        <v>361</v>
-      </c>
-      <c r="I28" t="s">
-        <v>474</v>
-      </c>
-      <c r="J28" t="s">
-        <v>213</v>
-      </c>
-      <c r="K28" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -3339,34 +2357,22 @@
         <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D29" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" t="s">
-        <v>362</v>
-      </c>
-      <c r="I29" t="s">
-        <v>475</v>
-      </c>
-      <c r="J29" t="s">
-        <v>213</v>
-      </c>
-      <c r="K29" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3374,34 +2380,22 @@
         <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D30" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
         <v>205</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>247</v>
-      </c>
-      <c r="H30" t="s">
-        <v>363</v>
-      </c>
-      <c r="I30" t="s">
-        <v>476</v>
-      </c>
-      <c r="J30" t="s">
-        <v>208</v>
-      </c>
-      <c r="K30" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3409,34 +2403,22 @@
         <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D31" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
-      </c>
-      <c r="H31" t="s">
-        <v>364</v>
-      </c>
-      <c r="I31" t="s">
-        <v>477</v>
-      </c>
-      <c r="J31" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -3444,34 +2426,22 @@
         <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D32" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" t="s">
-        <v>365</v>
-      </c>
-      <c r="I32" t="s">
-        <v>478</v>
-      </c>
-      <c r="J32" t="s">
-        <v>211</v>
-      </c>
-      <c r="K32" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3479,34 +2449,22 @@
         <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D33" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" t="s">
-        <v>366</v>
-      </c>
-      <c r="I33" t="s">
-        <v>479</v>
-      </c>
-      <c r="J33" t="s">
-        <v>212</v>
-      </c>
-      <c r="K33" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3514,34 +2472,22 @@
         <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D34" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>250</v>
-      </c>
-      <c r="H34" t="s">
-        <v>367</v>
-      </c>
-      <c r="I34" t="s">
-        <v>479</v>
-      </c>
-      <c r="J34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K34" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3549,34 +2495,22 @@
         <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D35" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
         <v>205</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>250</v>
-      </c>
-      <c r="H35" t="s">
-        <v>368</v>
-      </c>
-      <c r="I35" t="s">
-        <v>479</v>
-      </c>
-      <c r="J35" t="s">
-        <v>212</v>
-      </c>
-      <c r="K35" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -3584,34 +2518,22 @@
         <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D36" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G36" t="s">
-        <v>251</v>
-      </c>
-      <c r="H36" t="s">
-        <v>369</v>
-      </c>
-      <c r="I36" t="s">
-        <v>480</v>
-      </c>
-      <c r="J36" t="s">
-        <v>213</v>
-      </c>
-      <c r="K36" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -3619,34 +2541,22 @@
         <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>445</v>
       </c>
       <c r="D37" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="G37" t="s">
-        <v>252</v>
-      </c>
-      <c r="H37" t="s">
-        <v>336</v>
-      </c>
-      <c r="I37" t="s">
-        <v>481</v>
-      </c>
-      <c r="J37" t="s">
-        <v>213</v>
-      </c>
-      <c r="K37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -3654,34 +2564,22 @@
         <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D38" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="G38" t="s">
-        <v>253</v>
-      </c>
-      <c r="H38" t="s">
-        <v>370</v>
-      </c>
-      <c r="I38" t="s">
-        <v>482</v>
-      </c>
-      <c r="J38" t="s">
-        <v>212</v>
-      </c>
-      <c r="K38" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -3689,34 +2587,22 @@
         <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D39" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="G39" t="s">
-        <v>254</v>
-      </c>
-      <c r="H39" t="s">
-        <v>371</v>
-      </c>
-      <c r="I39" t="s">
-        <v>483</v>
-      </c>
-      <c r="J39" t="s">
-        <v>213</v>
-      </c>
-      <c r="K39" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -3724,34 +2610,22 @@
         <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D40" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
-        <v>255</v>
-      </c>
-      <c r="H40" t="s">
-        <v>372</v>
-      </c>
-      <c r="I40" t="s">
-        <v>484</v>
-      </c>
-      <c r="J40" t="s">
-        <v>216</v>
-      </c>
-      <c r="K40" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -3759,34 +2633,22 @@
         <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D41" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="G41" t="s">
-        <v>256</v>
-      </c>
-      <c r="H41" t="s">
-        <v>373</v>
-      </c>
-      <c r="I41" t="s">
-        <v>485</v>
-      </c>
-      <c r="J41" t="s">
-        <v>213</v>
-      </c>
-      <c r="K41" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -3794,34 +2656,22 @@
         <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D42" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="G42" t="s">
-        <v>257</v>
-      </c>
-      <c r="H42" t="s">
-        <v>374</v>
-      </c>
-      <c r="I42" t="s">
-        <v>486</v>
-      </c>
-      <c r="J42" t="s">
-        <v>216</v>
-      </c>
-      <c r="K42" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -3829,34 +2679,22 @@
         <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D43" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="G43" t="s">
-        <v>258</v>
-      </c>
-      <c r="H43" t="s">
-        <v>375</v>
-      </c>
-      <c r="I43" t="s">
-        <v>487</v>
-      </c>
-      <c r="J43" t="s">
-        <v>213</v>
-      </c>
-      <c r="K43" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -3864,34 +2702,22 @@
         <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D44" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="G44" t="s">
-        <v>259</v>
-      </c>
-      <c r="H44" t="s">
-        <v>376</v>
-      </c>
-      <c r="I44" t="s">
-        <v>488</v>
-      </c>
-      <c r="J44" t="s">
-        <v>211</v>
-      </c>
-      <c r="K44" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -3899,34 +2725,22 @@
         <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D45" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="G45" t="s">
-        <v>260</v>
-      </c>
-      <c r="H45" t="s">
-        <v>377</v>
-      </c>
-      <c r="I45" t="s">
-        <v>489</v>
-      </c>
-      <c r="J45" t="s">
-        <v>211</v>
-      </c>
-      <c r="K45" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -3934,34 +2748,22 @@
         <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D46" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>261</v>
-      </c>
-      <c r="H46" t="s">
-        <v>378</v>
-      </c>
-      <c r="I46" t="s">
-        <v>490</v>
-      </c>
-      <c r="J46" t="s">
-        <v>217</v>
-      </c>
-      <c r="K46" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -3969,34 +2771,22 @@
         <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D47" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="G47" t="s">
-        <v>262</v>
-      </c>
-      <c r="H47" t="s">
-        <v>379</v>
-      </c>
-      <c r="I47" t="s">
-        <v>491</v>
-      </c>
-      <c r="J47" t="s">
-        <v>213</v>
-      </c>
-      <c r="K47" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -4004,34 +2794,22 @@
         <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D48" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="G48" t="s">
-        <v>263</v>
-      </c>
-      <c r="H48" t="s">
-        <v>380</v>
-      </c>
-      <c r="I48" t="s">
-        <v>492</v>
-      </c>
-      <c r="J48" t="s">
-        <v>217</v>
-      </c>
-      <c r="K48" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -4039,34 +2817,22 @@
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D49" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="G49" t="s">
-        <v>264</v>
-      </c>
-      <c r="H49" t="s">
-        <v>381</v>
-      </c>
-      <c r="I49" t="s">
-        <v>493</v>
-      </c>
-      <c r="J49" t="s">
-        <v>213</v>
-      </c>
-      <c r="K49" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -4074,34 +2840,22 @@
         <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D50" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="G50" t="s">
-        <v>265</v>
-      </c>
-      <c r="H50" t="s">
-        <v>382</v>
-      </c>
-      <c r="I50" t="s">
-        <v>494</v>
-      </c>
-      <c r="J50" t="s">
-        <v>213</v>
-      </c>
-      <c r="K50" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -4109,34 +2863,22 @@
         <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D51" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="G51" t="s">
-        <v>266</v>
-      </c>
-      <c r="H51" t="s">
-        <v>383</v>
-      </c>
-      <c r="I51" t="s">
-        <v>495</v>
-      </c>
-      <c r="J51" t="s">
-        <v>211</v>
-      </c>
-      <c r="K51" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4144,34 +2886,22 @@
         <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D52" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F52" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="G52" t="s">
-        <v>266</v>
-      </c>
-      <c r="H52" t="s">
-        <v>383</v>
-      </c>
-      <c r="I52" t="s">
-        <v>495</v>
-      </c>
-      <c r="J52" t="s">
-        <v>211</v>
-      </c>
-      <c r="K52" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -4179,34 +2909,22 @@
         <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D53" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="G53" t="s">
-        <v>267</v>
-      </c>
-      <c r="H53" t="s">
-        <v>384</v>
-      </c>
-      <c r="I53" t="s">
-        <v>496</v>
-      </c>
-      <c r="J53" t="s">
-        <v>218</v>
-      </c>
-      <c r="K53" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -4214,34 +2932,22 @@
         <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>445</v>
       </c>
       <c r="D54" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="G54" t="s">
-        <v>268</v>
-      </c>
-      <c r="H54" t="s">
-        <v>336</v>
-      </c>
-      <c r="I54" t="s">
-        <v>497</v>
-      </c>
-      <c r="J54" t="s">
-        <v>213</v>
-      </c>
-      <c r="K54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -4249,34 +2955,22 @@
         <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D55" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F55" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="G55" t="s">
-        <v>269</v>
-      </c>
-      <c r="H55" t="s">
-        <v>385</v>
-      </c>
-      <c r="I55" t="s">
-        <v>498</v>
-      </c>
-      <c r="J55" t="s">
-        <v>211</v>
-      </c>
-      <c r="K55" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4284,34 +2978,22 @@
         <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D56" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F56" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="G56" t="s">
-        <v>270</v>
-      </c>
-      <c r="H56" t="s">
-        <v>386</v>
-      </c>
-      <c r="I56" t="s">
-        <v>499</v>
-      </c>
-      <c r="J56" t="s">
-        <v>212</v>
-      </c>
-      <c r="K56" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -4319,34 +3001,22 @@
         <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D57" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="G57" t="s">
-        <v>270</v>
-      </c>
-      <c r="H57" t="s">
-        <v>387</v>
-      </c>
-      <c r="I57" t="s">
-        <v>499</v>
-      </c>
-      <c r="J57" t="s">
-        <v>212</v>
-      </c>
-      <c r="K57" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -4354,34 +3024,22 @@
         <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D58" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="G58" t="s">
-        <v>270</v>
-      </c>
-      <c r="H58" t="s">
-        <v>387</v>
-      </c>
-      <c r="I58" t="s">
-        <v>499</v>
-      </c>
-      <c r="J58" t="s">
-        <v>212</v>
-      </c>
-      <c r="K58" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -4389,34 +3047,22 @@
         <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D59" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="G59" t="s">
-        <v>270</v>
-      </c>
-      <c r="H59" t="s">
-        <v>387</v>
-      </c>
-      <c r="I59" t="s">
-        <v>499</v>
-      </c>
-      <c r="J59" t="s">
-        <v>212</v>
-      </c>
-      <c r="K59" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -4424,34 +3070,22 @@
         <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D60" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F60" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="G60" t="s">
-        <v>270</v>
-      </c>
-      <c r="H60" t="s">
-        <v>387</v>
-      </c>
-      <c r="I60" t="s">
-        <v>499</v>
-      </c>
-      <c r="J60" t="s">
-        <v>212</v>
-      </c>
-      <c r="K60" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -4459,34 +3093,22 @@
         <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D61" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E61" t="s">
         <v>205</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="G61" t="s">
-        <v>271</v>
-      </c>
-      <c r="H61" t="s">
-        <v>388</v>
-      </c>
-      <c r="I61" t="s">
-        <v>500</v>
-      </c>
-      <c r="J61" t="s">
-        <v>208</v>
-      </c>
-      <c r="K61" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -4494,34 +3116,22 @@
         <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D62" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F62" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="G62" t="s">
-        <v>272</v>
-      </c>
-      <c r="H62" t="s">
-        <v>389</v>
-      </c>
-      <c r="I62" t="s">
-        <v>501</v>
-      </c>
-      <c r="J62" t="s">
-        <v>213</v>
-      </c>
-      <c r="K62" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -4529,34 +3139,22 @@
         <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D63" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F63" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="G63" t="s">
-        <v>273</v>
-      </c>
-      <c r="H63" t="s">
-        <v>390</v>
-      </c>
-      <c r="I63" t="s">
-        <v>502</v>
-      </c>
-      <c r="J63" t="s">
-        <v>219</v>
-      </c>
-      <c r="K63" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -4564,34 +3162,22 @@
         <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D64" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E64" t="s">
         <v>205</v>
       </c>
       <c r="F64" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="G64" t="s">
-        <v>274</v>
-      </c>
-      <c r="H64" t="s">
-        <v>391</v>
-      </c>
-      <c r="I64" t="s">
-        <v>503</v>
-      </c>
-      <c r="J64" t="s">
-        <v>208</v>
-      </c>
-      <c r="K64" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -4599,34 +3185,22 @@
         <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D65" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="G65" t="s">
-        <v>275</v>
-      </c>
-      <c r="H65" t="s">
-        <v>392</v>
-      </c>
-      <c r="I65" t="s">
-        <v>504</v>
-      </c>
-      <c r="J65" t="s">
-        <v>213</v>
-      </c>
-      <c r="K65" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -4634,34 +3208,22 @@
         <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D66" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="G66" t="s">
-        <v>276</v>
-      </c>
-      <c r="H66" t="s">
-        <v>393</v>
-      </c>
-      <c r="I66" t="s">
-        <v>505</v>
-      </c>
-      <c r="J66" t="s">
-        <v>220</v>
-      </c>
-      <c r="K66" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -4669,34 +3231,22 @@
         <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D67" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F67" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="G67" t="s">
-        <v>277</v>
-      </c>
-      <c r="H67" t="s">
-        <v>394</v>
-      </c>
-      <c r="I67" t="s">
-        <v>506</v>
-      </c>
-      <c r="J67" t="s">
-        <v>212</v>
-      </c>
-      <c r="K67" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -4704,34 +3254,22 @@
         <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D68" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F68" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="G68" t="s">
-        <v>278</v>
-      </c>
-      <c r="H68" t="s">
-        <v>395</v>
-      </c>
-      <c r="I68" t="s">
-        <v>507</v>
-      </c>
-      <c r="J68" t="s">
-        <v>210</v>
-      </c>
-      <c r="K68" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -4739,34 +3277,22 @@
         <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D69" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="G69" t="s">
-        <v>279</v>
-      </c>
-      <c r="H69" t="s">
-        <v>396</v>
-      </c>
-      <c r="I69" t="s">
-        <v>508</v>
-      </c>
-      <c r="J69" t="s">
-        <v>213</v>
-      </c>
-      <c r="K69" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -4774,34 +3300,22 @@
         <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D70" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
         <v>205</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="G70" t="s">
-        <v>280</v>
-      </c>
-      <c r="H70" t="s">
-        <v>397</v>
-      </c>
-      <c r="I70" t="s">
-        <v>509</v>
-      </c>
-      <c r="J70" t="s">
-        <v>208</v>
-      </c>
-      <c r="K70" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -4809,34 +3323,22 @@
         <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D71" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E71" t="s">
         <v>205</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="G71" t="s">
-        <v>281</v>
-      </c>
-      <c r="H71" t="s">
-        <v>398</v>
-      </c>
-      <c r="I71" t="s">
-        <v>510</v>
-      </c>
-      <c r="J71" t="s">
-        <v>212</v>
-      </c>
-      <c r="K71" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -4844,34 +3346,22 @@
         <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D72" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E72" t="s">
         <v>205</v>
       </c>
       <c r="F72" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="G72" t="s">
-        <v>281</v>
-      </c>
-      <c r="H72" t="s">
-        <v>398</v>
-      </c>
-      <c r="I72" t="s">
-        <v>510</v>
-      </c>
-      <c r="J72" t="s">
-        <v>212</v>
-      </c>
-      <c r="K72" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>56</v>
       </c>
@@ -4879,34 +3369,22 @@
         <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D73" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F73" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="G73" t="s">
-        <v>282</v>
-      </c>
-      <c r="H73" t="s">
-        <v>399</v>
-      </c>
-      <c r="I73" t="s">
-        <v>511</v>
-      </c>
-      <c r="J73" t="s">
-        <v>213</v>
-      </c>
-      <c r="K73" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>57</v>
       </c>
@@ -4914,34 +3392,22 @@
         <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D74" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F74" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="G74" t="s">
-        <v>283</v>
-      </c>
-      <c r="H74" t="s">
-        <v>400</v>
-      </c>
-      <c r="I74" t="s">
-        <v>512</v>
-      </c>
-      <c r="J74" t="s">
-        <v>213</v>
-      </c>
-      <c r="K74" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -4949,34 +3415,22 @@
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D75" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="G75" t="s">
-        <v>284</v>
-      </c>
-      <c r="H75" t="s">
-        <v>401</v>
-      </c>
-      <c r="I75" t="s">
-        <v>513</v>
-      </c>
-      <c r="J75" t="s">
-        <v>213</v>
-      </c>
-      <c r="K75" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -4984,34 +3438,22 @@
         <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D76" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="G76" t="s">
-        <v>285</v>
-      </c>
-      <c r="H76" t="s">
-        <v>402</v>
-      </c>
-      <c r="I76" t="s">
-        <v>514</v>
-      </c>
-      <c r="J76" t="s">
-        <v>211</v>
-      </c>
-      <c r="K76" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -5019,34 +3461,22 @@
         <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D77" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F77" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="G77" t="s">
-        <v>286</v>
-      </c>
-      <c r="H77" t="s">
-        <v>403</v>
-      </c>
-      <c r="I77" t="s">
-        <v>514</v>
-      </c>
-      <c r="J77" t="s">
-        <v>211</v>
-      </c>
-      <c r="K77" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>59</v>
       </c>
@@ -5054,34 +3484,22 @@
         <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D78" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E78" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="G78" t="s">
-        <v>287</v>
-      </c>
-      <c r="H78" t="s">
-        <v>404</v>
-      </c>
-      <c r="I78" t="s">
-        <v>515</v>
-      </c>
-      <c r="J78" t="s">
-        <v>213</v>
-      </c>
-      <c r="K78" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -5089,34 +3507,22 @@
         <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D79" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F79" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="G79" t="s">
-        <v>288</v>
-      </c>
-      <c r="H79" t="s">
-        <v>405</v>
-      </c>
-      <c r="I79" t="s">
-        <v>516</v>
-      </c>
-      <c r="J79" t="s">
-        <v>211</v>
-      </c>
-      <c r="K79" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -5124,34 +3530,22 @@
         <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D80" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E80" t="s">
         <v>205</v>
       </c>
       <c r="F80" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="G80" t="s">
-        <v>289</v>
-      </c>
-      <c r="H80" t="s">
-        <v>406</v>
-      </c>
-      <c r="I80" t="s">
-        <v>517</v>
-      </c>
-      <c r="J80" t="s">
-        <v>208</v>
-      </c>
-      <c r="K80" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -5159,34 +3553,22 @@
         <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D81" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E81" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="G81" t="s">
-        <v>290</v>
-      </c>
-      <c r="H81" t="s">
-        <v>407</v>
-      </c>
-      <c r="I81" t="s">
-        <v>518</v>
-      </c>
-      <c r="J81" t="s">
-        <v>213</v>
-      </c>
-      <c r="K81" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>63</v>
       </c>
@@ -5194,34 +3576,22 @@
         <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D82" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F82" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="G82" t="s">
-        <v>291</v>
-      </c>
-      <c r="H82" t="s">
-        <v>408</v>
-      </c>
-      <c r="I82" t="s">
-        <v>519</v>
-      </c>
-      <c r="J82" t="s">
-        <v>217</v>
-      </c>
-      <c r="K82" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>64</v>
       </c>
@@ -5229,34 +3599,22 @@
         <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D83" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F83" t="s">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="G83" t="s">
-        <v>292</v>
-      </c>
-      <c r="H83" t="s">
-        <v>409</v>
-      </c>
-      <c r="I83" t="s">
-        <v>520</v>
-      </c>
-      <c r="J83" t="s">
-        <v>215</v>
-      </c>
-      <c r="K83" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>65</v>
       </c>
@@ -5264,34 +3622,22 @@
         <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D84" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F84" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="G84" t="s">
-        <v>293</v>
-      </c>
-      <c r="H84" t="s">
-        <v>410</v>
-      </c>
-      <c r="I84" t="s">
-        <v>521</v>
-      </c>
-      <c r="J84" t="s">
-        <v>214</v>
-      </c>
-      <c r="K84" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>66</v>
       </c>
@@ -5299,34 +3645,22 @@
         <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D85" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F85" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="G85" t="s">
-        <v>294</v>
-      </c>
-      <c r="H85" t="s">
-        <v>411</v>
-      </c>
-      <c r="I85" t="s">
-        <v>522</v>
-      </c>
-      <c r="J85" t="s">
-        <v>221</v>
-      </c>
-      <c r="K85" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>67</v>
       </c>
@@ -5334,34 +3668,22 @@
         <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D86" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
         <v>205</v>
       </c>
       <c r="F86" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="G86" t="s">
-        <v>295</v>
-      </c>
-      <c r="H86" t="s">
-        <v>412</v>
-      </c>
-      <c r="I86" t="s">
-        <v>523</v>
-      </c>
-      <c r="J86" t="s">
-        <v>208</v>
-      </c>
-      <c r="K86" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>68</v>
       </c>
@@ -5369,34 +3691,22 @@
         <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D87" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
         <v>205</v>
       </c>
       <c r="F87" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="G87" t="s">
-        <v>296</v>
-      </c>
-      <c r="H87" t="s">
-        <v>413</v>
-      </c>
-      <c r="I87" t="s">
-        <v>524</v>
-      </c>
-      <c r="J87" t="s">
-        <v>208</v>
-      </c>
-      <c r="K87" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -5404,34 +3714,22 @@
         <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D88" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F88" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="G88" t="s">
-        <v>297</v>
-      </c>
-      <c r="H88" t="s">
-        <v>414</v>
-      </c>
-      <c r="I88" t="s">
-        <v>525</v>
-      </c>
-      <c r="J88" t="s">
-        <v>222</v>
-      </c>
-      <c r="K88" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -5439,34 +3737,22 @@
         <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D89" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F89" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="G89" t="s">
-        <v>298</v>
-      </c>
-      <c r="H89" t="s">
-        <v>415</v>
-      </c>
-      <c r="I89" t="s">
-        <v>526</v>
-      </c>
-      <c r="J89" t="s">
-        <v>211</v>
-      </c>
-      <c r="K89" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>70</v>
       </c>
@@ -5474,34 +3760,22 @@
         <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D90" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F90" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="G90" t="s">
-        <v>299</v>
-      </c>
-      <c r="H90" t="s">
-        <v>416</v>
-      </c>
-      <c r="I90" t="s">
-        <v>527</v>
-      </c>
-      <c r="J90" t="s">
-        <v>211</v>
-      </c>
-      <c r="K90" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -5509,34 +3783,22 @@
         <v>171</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D91" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="G91" t="s">
-        <v>300</v>
-      </c>
-      <c r="H91" t="s">
-        <v>417</v>
-      </c>
-      <c r="I91" t="s">
-        <v>528</v>
-      </c>
-      <c r="J91" t="s">
-        <v>213</v>
-      </c>
-      <c r="K91" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>72</v>
       </c>
@@ -5544,34 +3806,22 @@
         <v>172</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D92" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F92" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="G92" t="s">
-        <v>301</v>
-      </c>
-      <c r="H92" t="s">
-        <v>418</v>
-      </c>
-      <c r="I92" t="s">
-        <v>529</v>
-      </c>
-      <c r="J92" t="s">
-        <v>213</v>
-      </c>
-      <c r="K92" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -5579,34 +3829,22 @@
         <v>173</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D93" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F93" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="G93" t="s">
-        <v>302</v>
-      </c>
-      <c r="H93" t="s">
-        <v>419</v>
-      </c>
-      <c r="I93" t="s">
-        <v>530</v>
-      </c>
-      <c r="J93" t="s">
-        <v>213</v>
-      </c>
-      <c r="K93" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -5614,34 +3852,22 @@
         <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D94" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F94" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="G94" t="s">
-        <v>303</v>
-      </c>
-      <c r="H94" t="s">
-        <v>420</v>
-      </c>
-      <c r="I94" t="s">
-        <v>531</v>
-      </c>
-      <c r="J94" t="s">
-        <v>213</v>
-      </c>
-      <c r="K94" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -5649,34 +3875,22 @@
         <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D95" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F95" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="G95" t="s">
-        <v>304</v>
-      </c>
-      <c r="H95" t="s">
-        <v>421</v>
-      </c>
-      <c r="I95" t="s">
-        <v>532</v>
-      </c>
-      <c r="J95" t="s">
-        <v>213</v>
-      </c>
-      <c r="K95" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -5684,34 +3898,22 @@
         <v>175</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D96" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c r="G96" t="s">
-        <v>305</v>
-      </c>
-      <c r="H96" t="s">
-        <v>422</v>
-      </c>
-      <c r="I96" t="s">
-        <v>533</v>
-      </c>
-      <c r="J96" t="s">
-        <v>211</v>
-      </c>
-      <c r="K96" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -5719,34 +3921,22 @@
         <v>176</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D97" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="G97" t="s">
-        <v>306</v>
-      </c>
-      <c r="H97" t="s">
-        <v>423</v>
-      </c>
-      <c r="I97" t="s">
-        <v>534</v>
-      </c>
-      <c r="J97" t="s">
-        <v>213</v>
-      </c>
-      <c r="K97" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -5754,34 +3944,22 @@
         <v>176</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>445</v>
       </c>
       <c r="D98" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E98" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F98" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="G98" t="s">
-        <v>307</v>
-      </c>
-      <c r="H98" t="s">
-        <v>336</v>
-      </c>
-      <c r="I98" t="s">
-        <v>535</v>
-      </c>
-      <c r="J98" t="s">
-        <v>213</v>
-      </c>
-      <c r="K98" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -5789,34 +3967,22 @@
         <v>177</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D99" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F99" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="G99" t="s">
-        <v>308</v>
-      </c>
-      <c r="H99" t="s">
-        <v>424</v>
-      </c>
-      <c r="I99" t="s">
-        <v>536</v>
-      </c>
-      <c r="J99" t="s">
-        <v>217</v>
-      </c>
-      <c r="K99" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -5824,34 +3990,22 @@
         <v>178</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D100" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F100" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="G100" t="s">
-        <v>309</v>
-      </c>
-      <c r="H100" t="s">
-        <v>425</v>
-      </c>
-      <c r="I100" t="s">
-        <v>537</v>
-      </c>
-      <c r="J100" t="s">
-        <v>566</v>
-      </c>
-      <c r="K100" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>78</v>
       </c>
@@ -5859,34 +4013,22 @@
         <v>178</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D101" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E101" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F101" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="G101" t="s">
-        <v>309</v>
-      </c>
-      <c r="H101" t="s">
-        <v>425</v>
-      </c>
-      <c r="I101" t="s">
-        <v>537</v>
-      </c>
-      <c r="J101" t="s">
-        <v>566</v>
-      </c>
-      <c r="K101" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>78</v>
       </c>
@@ -5894,34 +4036,22 @@
         <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D102" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E102" t="s">
         <v>205</v>
       </c>
       <c r="F102" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="G102" t="s">
-        <v>309</v>
-      </c>
-      <c r="H102" t="s">
-        <v>426</v>
-      </c>
-      <c r="I102" t="s">
-        <v>537</v>
-      </c>
-      <c r="J102" t="s">
-        <v>566</v>
-      </c>
-      <c r="K102" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>78</v>
       </c>
@@ -5929,34 +4059,22 @@
         <v>178</v>
       </c>
       <c r="C103" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D103" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F103" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="G103" t="s">
-        <v>309</v>
-      </c>
-      <c r="H103" t="s">
-        <v>427</v>
-      </c>
-      <c r="I103" t="s">
-        <v>537</v>
-      </c>
-      <c r="J103" t="s">
-        <v>566</v>
-      </c>
-      <c r="K103" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>79</v>
       </c>
@@ -5964,34 +4082,22 @@
         <v>179</v>
       </c>
       <c r="C104" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D104" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F104" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="G104" t="s">
-        <v>310</v>
-      </c>
-      <c r="H104" t="s">
-        <v>428</v>
-      </c>
-      <c r="I104" t="s">
-        <v>538</v>
-      </c>
-      <c r="J104" t="s">
-        <v>213</v>
-      </c>
-      <c r="K104" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>80</v>
       </c>
@@ -5999,34 +4105,22 @@
         <v>180</v>
       </c>
       <c r="C105" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D105" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F105" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="G105" t="s">
-        <v>311</v>
-      </c>
-      <c r="H105" t="s">
-        <v>414</v>
-      </c>
-      <c r="I105" t="s">
-        <v>539</v>
-      </c>
-      <c r="J105" t="s">
-        <v>213</v>
-      </c>
-      <c r="K105" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -6034,34 +4128,22 @@
         <v>181</v>
       </c>
       <c r="C106" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D106" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F106" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="G106" t="s">
-        <v>312</v>
-      </c>
-      <c r="H106" t="s">
-        <v>429</v>
-      </c>
-      <c r="I106" t="s">
-        <v>540</v>
-      </c>
-      <c r="J106" t="s">
-        <v>211</v>
-      </c>
-      <c r="K106" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>81</v>
       </c>
@@ -6069,34 +4151,22 @@
         <v>181</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D107" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="G107" t="s">
-        <v>313</v>
-      </c>
-      <c r="H107" t="s">
-        <v>430</v>
-      </c>
-      <c r="I107" t="s">
-        <v>540</v>
-      </c>
-      <c r="J107" t="s">
-        <v>211</v>
-      </c>
-      <c r="K107" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>82</v>
       </c>
@@ -6104,34 +4174,22 @@
         <v>182</v>
       </c>
       <c r="C108" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D108" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="G108" t="s">
-        <v>314</v>
-      </c>
-      <c r="H108" t="s">
-        <v>431</v>
-      </c>
-      <c r="I108" t="s">
-        <v>541</v>
-      </c>
-      <c r="J108" t="s">
-        <v>213</v>
-      </c>
-      <c r="K108" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -6139,34 +4197,22 @@
         <v>183</v>
       </c>
       <c r="C109" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D109" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="G109" t="s">
-        <v>315</v>
-      </c>
-      <c r="H109" t="s">
-        <v>432</v>
-      </c>
-      <c r="I109" t="s">
-        <v>542</v>
-      </c>
-      <c r="J109" t="s">
-        <v>218</v>
-      </c>
-      <c r="K109" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -6174,34 +4220,22 @@
         <v>184</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D110" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="G110" t="s">
-        <v>316</v>
-      </c>
-      <c r="H110" t="s">
-        <v>433</v>
-      </c>
-      <c r="I110" t="s">
-        <v>543</v>
-      </c>
-      <c r="J110" t="s">
-        <v>211</v>
-      </c>
-      <c r="K110" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -6209,34 +4243,22 @@
         <v>184</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D111" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="G111" t="s">
-        <v>317</v>
-      </c>
-      <c r="H111" t="s">
-        <v>434</v>
-      </c>
-      <c r="I111" t="s">
-        <v>543</v>
-      </c>
-      <c r="J111" t="s">
-        <v>211</v>
-      </c>
-      <c r="K111" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -6244,34 +4266,22 @@
         <v>183</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>446</v>
       </c>
       <c r="D112" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>315</v>
       </c>
       <c r="G112" t="s">
-        <v>318</v>
-      </c>
-      <c r="H112" t="s">
-        <v>336</v>
-      </c>
-      <c r="I112" t="s">
-        <v>544</v>
-      </c>
-      <c r="J112" t="s">
-        <v>218</v>
-      </c>
-      <c r="K112" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -6279,34 +4289,22 @@
         <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D113" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E113" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="G113" t="s">
-        <v>319</v>
-      </c>
-      <c r="H113" t="s">
-        <v>435</v>
-      </c>
-      <c r="I113" t="s">
-        <v>545</v>
-      </c>
-      <c r="J113" t="s">
-        <v>211</v>
-      </c>
-      <c r="K113" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -6314,34 +4312,22 @@
         <v>185</v>
       </c>
       <c r="C114" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D114" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F114" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="G114" t="s">
-        <v>319</v>
-      </c>
-      <c r="H114" t="s">
-        <v>435</v>
-      </c>
-      <c r="I114" t="s">
-        <v>545</v>
-      </c>
-      <c r="J114" t="s">
-        <v>211</v>
-      </c>
-      <c r="K114" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -6349,34 +4335,22 @@
         <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D115" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E115" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F115" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="G115" t="s">
-        <v>320</v>
-      </c>
-      <c r="H115" t="s">
-        <v>436</v>
-      </c>
-      <c r="I115" t="s">
-        <v>546</v>
-      </c>
-      <c r="J115" t="s">
-        <v>211</v>
-      </c>
-      <c r="K115" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>86</v>
       </c>
@@ -6384,34 +4358,22 @@
         <v>186</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D116" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E116" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="G116" t="s">
-        <v>321</v>
-      </c>
-      <c r="H116" t="s">
-        <v>437</v>
-      </c>
-      <c r="I116" t="s">
-        <v>547</v>
-      </c>
-      <c r="J116" t="s">
-        <v>218</v>
-      </c>
-      <c r="K116" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>86</v>
       </c>
@@ -6419,34 +4381,22 @@
         <v>186</v>
       </c>
       <c r="C117" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D117" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E117" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F117" t="s">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="G117" t="s">
-        <v>321</v>
-      </c>
-      <c r="H117" t="s">
-        <v>438</v>
-      </c>
-      <c r="I117" t="s">
-        <v>547</v>
-      </c>
-      <c r="J117" t="s">
-        <v>218</v>
-      </c>
-      <c r="K117" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>86</v>
       </c>
@@ -6454,34 +4404,22 @@
         <v>186</v>
       </c>
       <c r="C118" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D118" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E118" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F118" t="s">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="G118" t="s">
-        <v>322</v>
-      </c>
-      <c r="H118" t="s">
-        <v>439</v>
-      </c>
-      <c r="I118" t="s">
-        <v>547</v>
-      </c>
-      <c r="J118" t="s">
-        <v>218</v>
-      </c>
-      <c r="K118" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -6489,34 +4427,22 @@
         <v>187</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D119" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E119" t="s">
         <v>205</v>
       </c>
       <c r="F119" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="G119" t="s">
-        <v>323</v>
-      </c>
-      <c r="H119" t="s">
-        <v>440</v>
-      </c>
-      <c r="I119" t="s">
-        <v>548</v>
-      </c>
-      <c r="J119" t="s">
-        <v>208</v>
-      </c>
-      <c r="K119" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>88</v>
       </c>
@@ -6524,34 +4450,22 @@
         <v>188</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D120" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E120" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F120" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="G120" t="s">
-        <v>324</v>
-      </c>
-      <c r="H120" t="s">
-        <v>441</v>
-      </c>
-      <c r="I120" t="s">
-        <v>549</v>
-      </c>
-      <c r="J120" t="s">
-        <v>211</v>
-      </c>
-      <c r="K120" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>89</v>
       </c>
@@ -6559,34 +4473,22 @@
         <v>189</v>
       </c>
       <c r="C121" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D121" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E121" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F121" t="s">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="G121" t="s">
-        <v>325</v>
-      </c>
-      <c r="H121" t="s">
-        <v>442</v>
-      </c>
-      <c r="I121" t="s">
-        <v>550</v>
-      </c>
-      <c r="J121" t="s">
-        <v>211</v>
-      </c>
-      <c r="K121" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>90</v>
       </c>
@@ -6594,34 +4496,22 @@
         <v>190</v>
       </c>
       <c r="C122" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D122" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E122" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F122" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="G122" t="s">
-        <v>326</v>
-      </c>
-      <c r="H122" t="s">
-        <v>443</v>
-      </c>
-      <c r="I122" t="s">
-        <v>551</v>
-      </c>
-      <c r="J122" t="s">
-        <v>211</v>
-      </c>
-      <c r="K122" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -6629,34 +4519,22 @@
         <v>190</v>
       </c>
       <c r="C123" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D123" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E123" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F123" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="G123" t="s">
-        <v>326</v>
-      </c>
-      <c r="H123" t="s">
-        <v>443</v>
-      </c>
-      <c r="I123" t="s">
-        <v>552</v>
-      </c>
-      <c r="J123" t="s">
-        <v>211</v>
-      </c>
-      <c r="K123" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>91</v>
       </c>
@@ -6664,34 +4542,22 @@
         <v>191</v>
       </c>
       <c r="C124" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D124" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E124" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F124" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="G124" t="s">
-        <v>327</v>
-      </c>
-      <c r="H124" t="s">
-        <v>444</v>
-      </c>
-      <c r="I124" t="s">
-        <v>553</v>
-      </c>
-      <c r="J124" t="s">
-        <v>213</v>
-      </c>
-      <c r="K124" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>92</v>
       </c>
@@ -6699,34 +4565,22 @@
         <v>192</v>
       </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D125" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E125" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F125" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="G125" t="s">
-        <v>328</v>
-      </c>
-      <c r="H125" t="s">
-        <v>445</v>
-      </c>
-      <c r="I125" t="s">
-        <v>554</v>
-      </c>
-      <c r="J125" t="s">
-        <v>213</v>
-      </c>
-      <c r="K125" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>92</v>
       </c>
@@ -6734,34 +4588,22 @@
         <v>192</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>446</v>
       </c>
       <c r="D126" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E126" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F126" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="G126" t="s">
-        <v>328</v>
-      </c>
-      <c r="H126" t="s">
-        <v>336</v>
-      </c>
-      <c r="I126" t="s">
-        <v>555</v>
-      </c>
-      <c r="J126" t="s">
-        <v>213</v>
-      </c>
-      <c r="K126" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>92</v>
       </c>
@@ -6769,34 +4611,22 @@
         <v>192</v>
       </c>
       <c r="C127" t="s">
-        <v>202</v>
+        <v>446</v>
       </c>
       <c r="D127" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E127" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F127" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="G127" t="s">
-        <v>329</v>
-      </c>
-      <c r="H127" t="s">
-        <v>336</v>
-      </c>
-      <c r="I127" t="s">
-        <v>556</v>
-      </c>
-      <c r="J127" t="s">
-        <v>213</v>
-      </c>
-      <c r="K127" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>93</v>
       </c>
@@ -6804,34 +4634,22 @@
         <v>193</v>
       </c>
       <c r="C128" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D128" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E128" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F128" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c r="G128" t="s">
-        <v>330</v>
-      </c>
-      <c r="H128" t="s">
-        <v>446</v>
-      </c>
-      <c r="I128" t="s">
-        <v>557</v>
-      </c>
-      <c r="J128" t="s">
-        <v>211</v>
-      </c>
-      <c r="K128" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -6839,34 +4657,22 @@
         <v>194</v>
       </c>
       <c r="C129" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D129" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E129" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F129" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="G129" t="s">
-        <v>331</v>
-      </c>
-      <c r="H129" t="s">
-        <v>447</v>
-      </c>
-      <c r="I129" t="s">
-        <v>558</v>
-      </c>
-      <c r="J129" t="s">
-        <v>219</v>
-      </c>
-      <c r="K129" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>95</v>
       </c>
@@ -6874,34 +4680,22 @@
         <v>195</v>
       </c>
       <c r="C130" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D130" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E130" t="s">
         <v>205</v>
       </c>
       <c r="F130" t="s">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="G130" t="s">
-        <v>332</v>
-      </c>
-      <c r="H130" t="s">
-        <v>448</v>
-      </c>
-      <c r="I130" t="s">
-        <v>559</v>
-      </c>
-      <c r="J130" t="s">
-        <v>208</v>
-      </c>
-      <c r="K130" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>96</v>
       </c>
@@ -6909,34 +4703,22 @@
         <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D131" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E131" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F131" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="G131" t="s">
-        <v>333</v>
-      </c>
-      <c r="H131" t="s">
-        <v>449</v>
-      </c>
-      <c r="I131" t="s">
-        <v>560</v>
-      </c>
-      <c r="J131" t="s">
-        <v>211</v>
-      </c>
-      <c r="K131" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>97</v>
       </c>
@@ -6944,34 +4726,22 @@
         <v>197</v>
       </c>
       <c r="C132" t="s">
-        <v>201</v>
+        <v>445</v>
       </c>
       <c r="D132" t="s">
-        <v>660</v>
+        <v>202</v>
       </c>
       <c r="E132" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F132" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="G132" t="s">
-        <v>334</v>
-      </c>
-      <c r="H132" t="s">
-        <v>450</v>
-      </c>
-      <c r="I132" t="s">
-        <v>561</v>
-      </c>
-      <c r="J132" t="s">
-        <v>211</v>
-      </c>
-      <c r="K132" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>98</v>
       </c>
@@ -6979,34 +4749,22 @@
         <v>198</v>
       </c>
       <c r="C133" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D133" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E133" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F133" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="G133" t="s">
-        <v>335</v>
-      </c>
-      <c r="H133" t="s">
-        <v>451</v>
-      </c>
-      <c r="I133" t="s">
-        <v>562</v>
-      </c>
-      <c r="J133" t="s">
-        <v>209</v>
-      </c>
-      <c r="K133" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>98</v>
       </c>
@@ -7014,63 +4772,42 @@
         <v>198</v>
       </c>
       <c r="C134" t="s">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="D134" t="s">
-        <v>661</v>
+        <v>202</v>
       </c>
       <c r="E134" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F134" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="G134" t="s">
-        <v>335</v>
-      </c>
-      <c r="H134" t="s">
-        <v>452</v>
-      </c>
-      <c r="I134" t="s">
-        <v>562</v>
-      </c>
-      <c r="J134" t="s">
-        <v>209</v>
-      </c>
-      <c r="K134" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>99</v>
       </c>
       <c r="B135" t="s">
         <v>199</v>
       </c>
+      <c r="C135" t="s">
+        <v>446</v>
+      </c>
       <c r="D135" t="s">
-        <v>661</v>
+        <v>203</v>
       </c>
       <c r="E135" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F135" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="G135" t="s">
-        <v>336</v>
-      </c>
-      <c r="H135" t="s">
-        <v>336</v>
-      </c>
-      <c r="I135" t="s">
-        <v>563</v>
-      </c>
-      <c r="J135" t="s">
-        <v>213</v>
-      </c>
-      <c r="K135" t="s">
-        <v>659</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
